--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-17 20:22:46</t>
+          <t>2024-12-25 19:29:28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>224</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-25 19:29:28</t>
+          <t>2024-12-25 19:53:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
